--- a/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/30pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/30pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE292"/>
+  <dimension ref="A1:AH292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>0.3958675317431716</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-50.25566523744668</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-88.35682303990845</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>94.07592076730919</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>0.4040108899837748</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-51.90010167351434</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-97.58981553010676</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>86.39170556714635</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>-0.03967760507638383</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-57.32645951489692</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>287.096723363749</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-48.91092777633671</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.3001734387233681</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-56.87253780745331</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-98.71922954821557</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>46.78931787268223</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>0.3981628317641445</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-63.40742694597486</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-97.8071070808727</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>77.53178312890951</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>0.3253915355815684</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-18.3094717434281</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-94.91790944224523</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>74.7328417660093</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>0.3102193174447436</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-32.95134514704631</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-97.43931959373072</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>58.05848936541446</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>0.3387469937777313</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-29.7462617418475</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-92.16941529256835</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>78.95548722642029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>0.3344997592965814</v>
       </c>
+      <c r="AF10" t="n">
+        <v>-55.92464086973096</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-99.20167942231127</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>55.8001740688423</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.1498375869223636</v>
       </c>
+      <c r="AF11" t="n">
+        <v>87.05041872998537</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-67.24380305506345</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-47.22582656112824</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>0.3331985365718598</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-21.42023042446412</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-89.87588111206112</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>90.36549145511579</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>-0.04783294488390122</v>
       </c>
+      <c r="AF13" t="n">
+        <v>66.30433371016265</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-69.9994044921209</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-26.71017283953065</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>-0.01880668402282254</v>
       </c>
+      <c r="AF14" t="n">
+        <v>-48.8675943464962</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>361.617662327788</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-34.70195773167776</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>0.3712247335653001</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-29.98231602567354</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-98.49252297521237</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>89.34024282086189</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.230019677269369</v>
       </c>
+      <c r="AF16" t="n">
+        <v>252.1114703239481</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-44.91644767420227</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-48.73748070107338</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>0.4525788968908916</v>
       </c>
+      <c r="AF17" t="n">
+        <v>-55.43497944830346</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-97.28888191024893</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>113.2767544729894</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>0.3179684529460685</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-48.80597644920172</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-98.01004631871972</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>53.7593870592808</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>0.3024396098396831</v>
       </c>
+      <c r="AF19" t="n">
+        <v>-8.046986618294911</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-95.62307723199713</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>77.16066654522257</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>-0.4154383566173795</v>
       </c>
+      <c r="AF20" t="n">
+        <v>297.2426567661552</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-39.95324432670635</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-70.12614584001814</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>-0.1184116021934405</v>
       </c>
+      <c r="AF21" t="n">
+        <v>94.01911398351062</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-78.35329683842913</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-34.84296487742932</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>-0.06602215992875286</v>
       </c>
+      <c r="AF22" t="n">
+        <v>-34.84700525434197</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>159.715151585281</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-62.19206164455618</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>0.4414422143921952</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-74.41953772382104</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-99.2015519437948</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>88.89725920383202</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>0.318006931151206</v>
       </c>
+      <c r="AF24" t="n">
+        <v>-59.09733342502717</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-98.63759555911764</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>52.48358416225643</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>0.3670284988075714</v>
       </c>
+      <c r="AF25" t="n">
+        <v>-45.67835583313453</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-92.87970708993045</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>76.80610056037419</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>0.3164120737137164</v>
       </c>
+      <c r="AF26" t="n">
+        <v>-12.20393661061552</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-94.74483860885317</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>89.05275699660658</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>-0.1058483900795897</v>
       </c>
+      <c r="AF27" t="n">
+        <v>81.69252395456421</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-84.84722579791408</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-38.02636795869887</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>0.3123571342928158</v>
       </c>
+      <c r="AF28" t="n">
+        <v>-36.52643645250152</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-99.17261317250851</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>53.50888185068043</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>0.3305227472827363</v>
       </c>
+      <c r="AF29" t="n">
+        <v>-39.63630089288225</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-89.23581988612096</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>68.47612748947003</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>0.415426432724942</v>
       </c>
+      <c r="AF30" t="n">
+        <v>-50.26310708970111</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-93.15888735561074</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>100.9717023984234</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>0.3854433632009308</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-62.16666227134668</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-99.50934955095877</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>71.05959336874945</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>-0.1606517643499135</v>
       </c>
+      <c r="AF32" t="n">
+        <v>76.33879589492312</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-58.1298948617903</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-57.49436429641802</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>-0.07621016117370646</v>
       </c>
+      <c r="AF33" t="n">
+        <v>87.18886830774667</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-95.26669693759018</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-24.09864281738531</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>0.3839863187370649</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-37.53323631967321</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-98.06094824052974</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>88.16674574828551</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>0.307595781356678</v>
       </c>
+      <c r="AF35" t="n">
+        <v>-23.92950841840747</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-97.61789472151156</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>56.90173578797204</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>0.4644278878161187</v>
       </c>
+      <c r="AF36" t="n">
+        <v>-79.17767271021205</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-99.71653866122526</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>95.36053128008093</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>0.3763185724913726</v>
       </c>
+      <c r="AF37" t="n">
+        <v>-55.25826790938234</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-97.64308630338996</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>74.42378690128834</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>0.341037683905354</v>
       </c>
+      <c r="AF38" t="n">
+        <v>-26.26777067196216</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-92.03795350435423</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>81.46108221748709</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>-0.1548193888973224</v>
       </c>
+      <c r="AF39" t="n">
+        <v>100.0276432051496</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-72.09358683353568</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-44.73811800142465</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>-0.16234252528849</v>
       </c>
+      <c r="AF40" t="n">
+        <v>119.609124678489</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-85.72633369544513</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-43.18254708084305</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>0.3402356025557561</v>
       </c>
+      <c r="AF41" t="n">
+        <v>-36.81596658193643</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-69.4131378194287</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>101.0938089037466</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>0.365831863794037</v>
       </c>
+      <c r="AF42" t="n">
+        <v>-26.61176193352198</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-94.45666382404394</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>101.8254797950381</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4915,6 +5299,15 @@
       <c r="AE43" t="n">
         <v>-0.1232332808794736</v>
       </c>
+      <c r="AF43" t="n">
+        <v>65.65176960451291</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-59.12130629484935</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-86.50014730423221</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5018,6 +5411,15 @@
       <c r="AE44" t="n">
         <v>0.3096524865664463</v>
       </c>
+      <c r="AF44" t="n">
+        <v>-57.45042255420342</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-99.0474666106881</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>49.08500730718071</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5121,6 +5523,15 @@
       <c r="AE45" t="n">
         <v>0.3642453020757315</v>
       </c>
+      <c r="AF45" t="n">
+        <v>-28.15214403305785</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-89.69542364674355</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>121.3845643625949</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5224,6 +5635,15 @@
       <c r="AE46" t="n">
         <v>-0.2204972538105742</v>
       </c>
+      <c r="AF46" t="n">
+        <v>165.7061135605026</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-41.87293638855093</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-40.42761656585142</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5327,6 +5747,15 @@
       <c r="AE47" t="n">
         <v>0.387484597648773</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-71.60974730933304</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-99.17030906675951</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>69.19875653086311</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5430,6 +5859,15 @@
       <c r="AE48" t="n">
         <v>-0.03725999667592839</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-46.05504366360918</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>302.7470728340421</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-57.10498843733968</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5533,6 +5971,15 @@
       <c r="AE49" t="n">
         <v>0.4161577484564533</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-61.39920882456503</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-96.4195271444751</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>86.33738272175945</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5636,6 +6083,15 @@
       <c r="AE50" t="n">
         <v>0.3529638282290702</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-44.80739597092371</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-96.35604875018765</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>67.31910046638048</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5739,6 +6195,15 @@
       <c r="AE51" t="n">
         <v>-0.1963458772545584</v>
       </c>
+      <c r="AF51" t="n">
+        <v>194.4406319579102</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-26.77013723370537</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-48.20277124293541</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5842,6 +6307,15 @@
       <c r="AE52" t="n">
         <v>-0.2802432041423372</v>
       </c>
+      <c r="AF52" t="n">
+        <v>175.9156619138018</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-6.154816797915495</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-67.63196108691545</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5945,6 +6419,15 @@
       <c r="AE53" t="n">
         <v>-0.1858116982332139</v>
       </c>
+      <c r="AF53" t="n">
+        <v>98.9756183992872</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-78.5875556711774</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-60.76100716032872</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6048,6 +6531,15 @@
       <c r="AE54" t="n">
         <v>0.3018627487290063</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-48.19233984232041</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-98.90984089317304</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>48.48552248246581</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6151,6 +6643,15 @@
       <c r="AE55" t="n">
         <v>0.3904199851487872</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-33.52030915087109</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-95.92996198401369</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>103.5530387936166</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6254,6 +6755,15 @@
       <c r="AE56" t="n">
         <v>-0.03348443412116212</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-46.30534491493646</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>171.7896720381326</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-29.98877650914497</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6357,6 +6867,15 @@
       <c r="AE57" t="n">
         <v>-0.03537303313900778</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-41.17302634602449</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>228.2528553787531</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-48.2604023842213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6460,6 +6979,15 @@
       <c r="AE58" t="n">
         <v>0.5301792133758065</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-52.32509961036609</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-95.24576148641415</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>263.7469173021236</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6563,6 +7091,15 @@
       <c r="AE59" t="n">
         <v>-0.0983305916049324</v>
       </c>
+      <c r="AF59" t="n">
+        <v>69.28076803660581</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-71.19591275042178</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-35.74434268332246</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6666,6 +7203,15 @@
       <c r="AE60" t="n">
         <v>0.4114171252548904</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-55.53234164883083</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-97.15989156617248</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>90.7701320277076</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6769,6 +7315,15 @@
       <c r="AE61" t="n">
         <v>-0.1249355229509383</v>
       </c>
+      <c r="AF61" t="n">
+        <v>80.26729301877863</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-79.88942519089005</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>-45.69497630062958</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6872,6 +7427,15 @@
       <c r="AE62" t="n">
         <v>-0.07802287696429513</v>
       </c>
+      <c r="AF62" t="n">
+        <v>75.51633135201794</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-80.02568606473382</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-24.73503839860881</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6975,6 +7539,15 @@
       <c r="AE63" t="n">
         <v>-0.1703714754809225</v>
       </c>
+      <c r="AF63" t="n">
+        <v>175.3999881813241</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-87.90405829085796</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-34.77724563420044</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7078,6 +7651,15 @@
       <c r="AE64" t="n">
         <v>-0.01506723365126567</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-35.56900447310872</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>228.5030848911192</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-27.50353357831168</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7181,6 +7763,15 @@
       <c r="AE65" t="n">
         <v>0.3215853959316965</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-24.1033791337234</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-79.85159813157406</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>197.3993901269375</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7284,6 +7875,15 @@
       <c r="AE66" t="n">
         <v>0.3486369580787441</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-31.91162081153177</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-90.75878868799332</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>79.99758921451846</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7387,6 +7987,15 @@
       <c r="AE67" t="n">
         <v>0.3347634728859894</v>
       </c>
+      <c r="AF67" t="n">
+        <v>-41.7701628629963</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-98.26978210062977</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>60.65050803356103</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7490,6 +8099,15 @@
       <c r="AE68" t="n">
         <v>-0.2400851438681444</v>
       </c>
+      <c r="AF68" t="n">
+        <v>181.780248203105</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-31.82728454934468</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>-68.45004114510868</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7593,6 +8211,15 @@
       <c r="AE69" t="n">
         <v>0.3279066070516495</v>
       </c>
+      <c r="AF69" t="n">
+        <v>-42.78267141820543</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>-94.27084060545235</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>61.3455398408763</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7696,6 +8323,15 @@
       <c r="AE70" t="n">
         <v>-0.1607303944064658</v>
       </c>
+      <c r="AF70" t="n">
+        <v>68.05312024911893</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>-52.79152917545046</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>-61.68072848803925</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7799,6 +8435,15 @@
       <c r="AE71" t="n">
         <v>-0.183066457061569</v>
       </c>
+      <c r="AF71" t="n">
+        <v>107.9591426255079</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>-77.36979350309902</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>-55.45132920175801</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7902,6 +8547,15 @@
       <c r="AE72" t="n">
         <v>-0.1655142615086967</v>
       </c>
+      <c r="AF72" t="n">
+        <v>94.09637158107877</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-65.99364902676949</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>-49.35967206677952</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8005,6 +8659,15 @@
       <c r="AE73" t="n">
         <v>0.306734985485261</v>
       </c>
+      <c r="AF73" t="n">
+        <v>-40.70166744432814</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>-97.22219710041607</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>51.31552877135545</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8108,6 +8771,15 @@
       <c r="AE74" t="n">
         <v>0.4381779081053789</v>
       </c>
+      <c r="AF74" t="n">
+        <v>-78.28136624722875</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>-99.74657869633396</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>85.50957981360364</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8211,6 +8883,15 @@
       <c r="AE75" t="n">
         <v>-0.01708282663826923</v>
       </c>
+      <c r="AF75" t="n">
+        <v>-42.35182494035136</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>236.7107345497167</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>-27.86229003899114</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8314,6 +8995,15 @@
       <c r="AE76" t="n">
         <v>-0.1103424629401983</v>
       </c>
+      <c r="AF76" t="n">
+        <v>-36.41439698435367</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>135.5530100895599</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>-57.45421421614246</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8417,6 +9107,15 @@
       <c r="AE77" t="n">
         <v>-0.1960636583378158</v>
       </c>
+      <c r="AF77" t="n">
+        <v>138.9871468295266</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>-86.65713848571956</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>-49.17905674161597</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8520,6 +9219,15 @@
       <c r="AE78" t="n">
         <v>-0.1130358883798891</v>
       </c>
+      <c r="AF78" t="n">
+        <v>65.0781298171172</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>-81.22247903505824</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>-53.09237123289672</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8623,6 +9331,15 @@
       <c r="AE79" t="n">
         <v>-0.1132090052747952</v>
       </c>
+      <c r="AF79" t="n">
+        <v>82.99537858712009</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>-73.66694479005582</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>-33.94772870661309</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8726,6 +9443,15 @@
       <c r="AE80" t="n">
         <v>0.4318243815391829</v>
       </c>
+      <c r="AF80" t="n">
+        <v>-60.04502814235732</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>-97.63680144871775</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>94.24387304966955</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8829,6 +9555,15 @@
       <c r="AE81" t="n">
         <v>-0.1765033958728265</v>
       </c>
+      <c r="AF81" t="n">
+        <v>74.92588278315668</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>-49.85366023566864</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>-60.34332691193369</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8932,6 +9667,15 @@
       <c r="AE82" t="n">
         <v>-0.1865593575448536</v>
       </c>
+      <c r="AF82" t="n">
+        <v>173.7812854490607</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>-28.48329783625227</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>-44.84044099454871</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9035,6 +9779,15 @@
       <c r="AE83" t="n">
         <v>-0.2391409753938101</v>
       </c>
+      <c r="AF83" t="n">
+        <v>105.6965171060294</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>-59.54681432936161</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>-73.10979893504617</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9138,6 +9891,15 @@
       <c r="AE84" t="n">
         <v>-0.1498435197183544</v>
       </c>
+      <c r="AF84" t="n">
+        <v>94.29111976033209</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>-52.06135528401823</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>-79.37588994644631</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9241,6 +10003,15 @@
       <c r="AE85" t="n">
         <v>-0.09482192799895553</v>
       </c>
+      <c r="AF85" t="n">
+        <v>70.95285588073105</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>-79.13017520417196</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>-37.84136922167498</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9344,6 +10115,15 @@
       <c r="AE86" t="n">
         <v>0.3878214360497709</v>
       </c>
+      <c r="AF86" t="n">
+        <v>-33.20049483576617</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>-98.40562012614618</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>101.10560505763</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9447,6 +10227,15 @@
       <c r="AE87" t="n">
         <v>0.4207146133786804</v>
       </c>
+      <c r="AF87" t="n">
+        <v>-48.8852818513051</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>-96.46789209254248</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>100.4733068687319</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9550,6 +10339,15 @@
       <c r="AE88" t="n">
         <v>0.3270414214707313</v>
       </c>
+      <c r="AF88" t="n">
+        <v>-20.11631005742092</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>-84.56753745073561</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>88.10495659284928</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9653,6 +10451,15 @@
       <c r="AE89" t="n">
         <v>-0.06689050635658633</v>
       </c>
+      <c r="AF89" t="n">
+        <v>81.93939002494194</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>-84.98675414614766</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>-20.29507220774882</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9756,6 +10563,15 @@
       <c r="AE90" t="n">
         <v>-0.1811248302399373</v>
       </c>
+      <c r="AF90" t="n">
+        <v>76.31015079472833</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>-46.59809315226931</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>-60.22269186300863</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9859,6 +10675,15 @@
       <c r="AE91" t="n">
         <v>0.3028489019776427</v>
       </c>
+      <c r="AF91" t="n">
+        <v>-39.12706426500264</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>-98.20488046025234</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>50.29708778805987</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9962,6 +10787,15 @@
       <c r="AE92" t="n">
         <v>0.3484048913304748</v>
       </c>
+      <c r="AF92" t="n">
+        <v>-41.98288663448088</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>-97.76232358820157</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>67.58973353741209</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10065,6 +10899,15 @@
       <c r="AE93" t="n">
         <v>-0.1073446444614044</v>
       </c>
+      <c r="AF93" t="n">
+        <v>120.0056008941671</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>-55.33943848083198</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>-37.96733341607735</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10168,6 +11011,15 @@
       <c r="AE94" t="n">
         <v>-0.09815811498588206</v>
       </c>
+      <c r="AF94" t="n">
+        <v>77.9783431558356</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>-84.86928047578233</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>-35.33384388654391</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10271,6 +11123,15 @@
       <c r="AE95" t="n">
         <v>0.389516082839755</v>
       </c>
+      <c r="AF95" t="n">
+        <v>-46.48642124336734</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>-97.73314179195852</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>82.24236633736736</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10374,6 +11235,15 @@
       <c r="AE96" t="n">
         <v>-0.007207665473400765</v>
       </c>
+      <c r="AF96" t="n">
+        <v>-47.34309607322382</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>248.8862378446253</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>-9.550751797674325</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10477,6 +11347,15 @@
       <c r="AE97" t="n">
         <v>-0.07726718124247006</v>
       </c>
+      <c r="AF97" t="n">
+        <v>87.2497769450906</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>-87.94146526463329</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>-23.26522704124714</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10580,6 +11459,15 @@
       <c r="AE98" t="n">
         <v>0.3864574639891898</v>
       </c>
+      <c r="AF98" t="n">
+        <v>-35.65061467091866</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>-93.00409927525243</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>101.1762398548536</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10683,6 +11571,15 @@
       <c r="AE99" t="n">
         <v>-0.1950710765142886</v>
       </c>
+      <c r="AF99" t="n">
+        <v>101.9488745860522</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>-74.31088232370074</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>-61.82214608892822</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10786,6 +11683,15 @@
       <c r="AE100" t="n">
         <v>-0.1662870284364965</v>
       </c>
+      <c r="AF100" t="n">
+        <v>85.5246806187815</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-71.51096131463891</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>-59.39790244146879</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10889,6 +11795,15 @@
       <c r="AE101" t="n">
         <v>-0.1258679538013932</v>
       </c>
+      <c r="AF101" t="n">
+        <v>77.36929202691874</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>-83.86882496860642</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>-48.57765866475526</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10992,6 +11907,15 @@
       <c r="AE102" t="n">
         <v>-0.0803592227326127</v>
       </c>
+      <c r="AF102" t="n">
+        <v>68.6446438848658</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>-84.41583428976979</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>-31.65508414511344</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11095,6 +12019,15 @@
       <c r="AE103" t="n">
         <v>-0.2195610267127383</v>
       </c>
+      <c r="AF103" t="n">
+        <v>123.68118328378</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>-67.58694234277672</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>-58.42901392539643</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11198,6 +12131,15 @@
       <c r="AE104" t="n">
         <v>-0.08567196156578355</v>
       </c>
+      <c r="AF104" t="n">
+        <v>99.23278461964429</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>-87.89009676577834</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>-22.52365642165501</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11301,6 +12243,15 @@
       <c r="AE105" t="n">
         <v>-0.1718164661391905</v>
       </c>
+      <c r="AF105" t="n">
+        <v>104.8859082290624</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>-70.08717939810806</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>-46.95776164148234</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11404,6 +12355,15 @@
       <c r="AE106" t="n">
         <v>-0.2149283751929427</v>
       </c>
+      <c r="AF106" t="n">
+        <v>93.95358341904398</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-61.64521435791737</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-74.36701235210062</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11507,6 +12467,15 @@
       <c r="AE107" t="n">
         <v>-0.2810174416679819</v>
       </c>
+      <c r="AF107" t="n">
+        <v>92.9229768027146</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>-19.99492813130644</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>-80.33701205044524</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11610,6 +12579,15 @@
       <c r="AE108" t="n">
         <v>-0.2232584256993226</v>
       </c>
+      <c r="AF108" t="n">
+        <v>146.5234716979549</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>-80.0057786273415</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>-54.34597730153485</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11713,6 +12691,15 @@
       <c r="AE109" t="n">
         <v>-0.07605246804746646</v>
       </c>
+      <c r="AF109" t="n">
+        <v>80.08477022321161</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>-78.90659891601793</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>-22.58920257627337</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11816,6 +12803,15 @@
       <c r="AE110" t="n">
         <v>-0.2151383270979816</v>
       </c>
+      <c r="AF110" t="n">
+        <v>121.0549465831301</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>-20.56157809516488</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>-69.38430300480778</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11919,6 +12915,15 @@
       <c r="AE111" t="n">
         <v>0.3962568983390315</v>
       </c>
+      <c r="AF111" t="n">
+        <v>-45.77740289207463</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>-97.95278688150117</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>88.22343456025675</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12022,6 +13027,15 @@
       <c r="AE112" t="n">
         <v>0.3433804595976083</v>
       </c>
+      <c r="AF112" t="n">
+        <v>-64.88861900267294</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>-99.65118220736237</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>57.0036719009656</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12125,6 +13139,15 @@
       <c r="AE113" t="n">
         <v>-0.224097540402948</v>
       </c>
+      <c r="AF113" t="n">
+        <v>95.47641516571547</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-66.07631608110428</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>-73.6702533205727</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12228,6 +13251,15 @@
       <c r="AE114" t="n">
         <v>-0.003100946901880716</v>
       </c>
+      <c r="AF114" t="n">
+        <v>-54.0723228706853</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>347.0919181327585</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>-5.2586761258918</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12331,6 +13363,15 @@
       <c r="AE115" t="n">
         <v>-0.03821879260132385</v>
       </c>
+      <c r="AF115" t="n">
+        <v>-46.64219147748698</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>217.5283411947653</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>-45.70479719283729</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12434,6 +13475,15 @@
       <c r="AE116" t="n">
         <v>0.3697985683455191</v>
       </c>
+      <c r="AF116" t="n">
+        <v>-60.30598979213278</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-98.99286580335109</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>66.29965991958156</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12537,6 +13587,15 @@
       <c r="AE117" t="n">
         <v>-0.1374838946328253</v>
       </c>
+      <c r="AF117" t="n">
+        <v>76.73930078309988</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>-77.54949337160299</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>-53.61597651339171</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12640,6 +13699,15 @@
       <c r="AE118" t="n">
         <v>-0.1335060193723855</v>
       </c>
+      <c r="AF118" t="n">
+        <v>189.5911012094804</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>-83.75702262806078</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>-21.18078648670259</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12743,6 +13811,15 @@
       <c r="AE119" t="n">
         <v>-0.1497354486640308</v>
       </c>
+      <c r="AF119" t="n">
+        <v>-38.80236636549932</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>149.8181234201293</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>-83.15015919676011</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12846,6 +13923,15 @@
       <c r="AE120" t="n">
         <v>-0.1130624948346773</v>
       </c>
+      <c r="AF120" t="n">
+        <v>86.26452139205955</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>-73.27721446758855</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>-35.59157941778036</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12949,6 +14035,15 @@
       <c r="AE121" t="n">
         <v>0.3262980199978721</v>
       </c>
+      <c r="AF121" t="n">
+        <v>-42.99806167018428</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>-97.55792453996307</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>57.15654637596748</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13052,6 +14147,15 @@
       <c r="AE122" t="n">
         <v>0.3299049236271901</v>
       </c>
+      <c r="AF122" t="n">
+        <v>-42.24638698945751</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>-92.55661364037331</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>62.46132150994082</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13155,6 +14259,15 @@
       <c r="AE123" t="n">
         <v>-0.1726685745518944</v>
       </c>
+      <c r="AF123" t="n">
+        <v>108.9745682165378</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>-80.60462425805912</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>-47.95684880687958</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13258,6 +14371,15 @@
       <c r="AE124" t="n">
         <v>0.3480150237141746</v>
       </c>
+      <c r="AF124" t="n">
+        <v>-68.52544986180799</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>-98.8273534845025</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>58.28868074469318</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13361,6 +14483,15 @@
       <c r="AE125" t="n">
         <v>0.3338633619941884</v>
       </c>
+      <c r="AF125" t="n">
+        <v>-67.30609147378966</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>-99.4241851209501</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>54.09765175311144</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13464,6 +14595,15 @@
       <c r="AE126" t="n">
         <v>-0.1856589525345212</v>
       </c>
+      <c r="AF126" t="n">
+        <v>87.19301138463291</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>-77.63590823047998</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>-72.03627389672666</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13567,6 +14707,15 @@
       <c r="AE127" t="n">
         <v>-0.1344919442101452</v>
       </c>
+      <c r="AF127" t="n">
+        <v>67.81897793578413</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>-67.82687707019001</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>-54.40812663427766</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13670,6 +14819,15 @@
       <c r="AE128" t="n">
         <v>-0.1106685118345182</v>
       </c>
+      <c r="AF128" t="n">
+        <v>113.9402593371865</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>-90.58901372348575</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>-28.58136486427027</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13773,6 +14931,15 @@
       <c r="AE129" t="n">
         <v>-0.1413674713279991</v>
       </c>
+      <c r="AF129" t="n">
+        <v>63.2099988052308</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>-68.4349709772272</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>-65.12490726097157</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13876,6 +15043,15 @@
       <c r="AE130" t="n">
         <v>0.437318169238248</v>
       </c>
+      <c r="AF130" t="n">
+        <v>-60.33475779221983</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>-95.3210332834991</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>101.1811333791903</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13979,6 +15155,15 @@
       <c r="AE131" t="n">
         <v>0.3878156357783615</v>
       </c>
+      <c r="AF131" t="n">
+        <v>-31.78479430965098</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>-99.17661688246507</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>100.3731260416213</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14082,6 +15267,15 @@
       <c r="AE132" t="n">
         <v>0.383676714144162</v>
       </c>
+      <c r="AF132" t="n">
+        <v>-52.15318900478827</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>-90.87218850327247</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>81.56651187220602</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14185,6 +15379,15 @@
       <c r="AE133" t="n">
         <v>-0.2150572306330179</v>
       </c>
+      <c r="AF133" t="n">
+        <v>-22.94670756282705</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>113.6832418702894</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>-77.58491643340672</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14288,6 +15491,15 @@
       <c r="AE134" t="n">
         <v>-0.06857142411324044</v>
       </c>
+      <c r="AF134" t="n">
+        <v>76.10547371467581</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>-91.41192637611375</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>-24.31010836992267</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14391,6 +15603,15 @@
       <c r="AE135" t="n">
         <v>-0.1359771139355276</v>
       </c>
+      <c r="AF135" t="n">
+        <v>72.79217482071117</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>-56.45831168498109</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>-45.86944431255117</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14494,6 +15715,15 @@
       <c r="AE136" t="n">
         <v>-0.08598237174717593</v>
       </c>
+      <c r="AF136" t="n">
+        <v>100.2016548321475</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>-88.54928492482036</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>-23.0121708974769</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14597,6 +15827,15 @@
       <c r="AE137" t="n">
         <v>-0.03180906299305441</v>
       </c>
+      <c r="AF137" t="n">
+        <v>-37.65337290197168</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>211.8771745272381</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>-38.45307890735478</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14700,6 +15939,15 @@
       <c r="AE138" t="n">
         <v>0.010832093731364</v>
       </c>
+      <c r="AF138" t="n">
+        <v>-48.3831336425968</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>290.3259284337451</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>17.26346810236428</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14803,6 +16051,15 @@
       <c r="AE139" t="n">
         <v>-0.1564501700502074</v>
       </c>
+      <c r="AF139" t="n">
+        <v>78.92344815228647</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>-82.95199874439798</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>-67.00730030486152</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14906,6 +16163,15 @@
       <c r="AE140" t="n">
         <v>0.3292792137790702</v>
       </c>
+      <c r="AF140" t="n">
+        <v>-36.38233590781591</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>-97.83532384979388</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>60.00628760488287</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15009,6 +16275,15 @@
       <c r="AE141" t="n">
         <v>0.3101864063015538</v>
       </c>
+      <c r="AF141" t="n">
+        <v>-16.51216253136607</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>-87.03000084919884</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>82.09520807945022</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15112,6 +16387,15 @@
       <c r="AE142" t="n">
         <v>0.3147866034904315</v>
       </c>
+      <c r="AF142" t="n">
+        <v>-34.56331331217098</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>-98.80305549664482</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>56.94643692892261</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15215,6 +16499,15 @@
       <c r="AE143" t="n">
         <v>-0.06879614553408878</v>
       </c>
+      <c r="AF143" t="n">
+        <v>78.10847051429354</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>-89.288645918352</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>-23.30970180785485</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15318,6 +16611,15 @@
       <c r="AE144" t="n">
         <v>-0.1352819767824976</v>
       </c>
+      <c r="AF144" t="n">
+        <v>116.3369175729154</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>-90.20206085737803</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>-36.51803628093511</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15421,6 +16723,15 @@
       <c r="AE145" t="n">
         <v>0.3538334238670688</v>
       </c>
+      <c r="AF145" t="n">
+        <v>-37.27280538525659</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>-82.07619981218362</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>89.70717981570978</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15524,6 +16835,15 @@
       <c r="AE146" t="n">
         <v>-0.1038968848643032</v>
       </c>
+      <c r="AF146" t="n">
+        <v>81.37396608203611</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>-75.08249725554906</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>-33.02919657716233</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15627,6 +16947,15 @@
       <c r="AE147" t="n">
         <v>0.3125527356526359</v>
       </c>
+      <c r="AF147" t="n">
+        <v>-13.5036137343017</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>-89.3018213036506</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>113.4699295275058</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15730,6 +17059,15 @@
       <c r="AE148" t="n">
         <v>0.4880971311991099</v>
       </c>
+      <c r="AF148" t="n">
+        <v>-69.49234409628524</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>-97.82358241730164</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>117.5150917573361</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15833,6 +17171,15 @@
       <c r="AE149" t="n">
         <v>0.3140111773790328</v>
       </c>
+      <c r="AF149" t="n">
+        <v>-48.16264115311154</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>-94.93821552382924</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>53.32149305348201</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15936,6 +17283,15 @@
       <c r="AE150" t="n">
         <v>-0.04733919004623966</v>
       </c>
+      <c r="AF150" t="n">
+        <v>-51.23506270766318</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>272.4970487704772</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>-61.99927132765495</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16039,6 +17395,15 @@
       <c r="AE151" t="n">
         <v>-0.1598723495104228</v>
       </c>
+      <c r="AF151" t="n">
+        <v>105.0387143643483</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>-91.41417323222443</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>-51.80692431351167</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16142,6 +17507,15 @@
       <c r="AE152" t="n">
         <v>-0.1658763664241349</v>
       </c>
+      <c r="AF152" t="n">
+        <v>115.5778312302107</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>-82.99647486487044</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>-45.95699280647778</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16245,6 +17619,15 @@
       <c r="AE153" t="n">
         <v>-0.1396033742901162</v>
       </c>
+      <c r="AF153" t="n">
+        <v>93.82949403990453</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>-74.98798381738273</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>-43.29794989602773</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16348,6 +17731,15 @@
       <c r="AE154" t="n">
         <v>-0.08637269627898025</v>
       </c>
+      <c r="AF154" t="n">
+        <v>61.92263099431893</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>-81.26289045513433</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>-40.6085604837499</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16451,6 +17843,15 @@
       <c r="AE155" t="n">
         <v>0.32187546218315</v>
       </c>
+      <c r="AF155" t="n">
+        <v>-34.28392482210791</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>-87.77792214572997</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>66.02651511666058</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16554,6 +17955,15 @@
       <c r="AE156" t="n">
         <v>-0.03497891929050364</v>
       </c>
+      <c r="AF156" t="n">
+        <v>-37.97032783972703</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>265.0640605204252</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>-41.76693828830098</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16657,6 +18067,15 @@
       <c r="AE157" t="n">
         <v>-0.2501379173202732</v>
       </c>
+      <c r="AF157" t="n">
+        <v>184.6735660110405</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>-14.4602419771367</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>-63.27038175900195</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16760,6 +18179,15 @@
       <c r="AE158" t="n">
         <v>0.3956830037756576</v>
       </c>
+      <c r="AF158" t="n">
+        <v>-44.15190321885584</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>-83.9982191677971</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>107.7314035418744</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16863,6 +18291,15 @@
       <c r="AE159" t="n">
         <v>-0.07507800728271005</v>
       </c>
+      <c r="AF159" t="n">
+        <v>66.02263958925955</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>-80.27307074498997</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>-28.78506402961624</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16966,6 +18403,15 @@
       <c r="AE160" t="n">
         <v>-0.1916844784034289</v>
       </c>
+      <c r="AF160" t="n">
+        <v>167.3214038954864</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>-40.04726544826178</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>-59.15189117806795</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17069,6 +18515,15 @@
       <c r="AE161" t="n">
         <v>-0.1216045983953304</v>
       </c>
+      <c r="AF161" t="n">
+        <v>86.03613696770948</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>-78.96158038362717</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>-41.32195091103461</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17172,6 +18627,15 @@
       <c r="AE162" t="n">
         <v>0.3425359076972714</v>
       </c>
+      <c r="AF162" t="n">
+        <v>-55.20759554025653</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>-99.25968293242201</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>56.98448424554851</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17275,6 +18739,15 @@
       <c r="AE163" t="n">
         <v>0.3711696588646315</v>
       </c>
+      <c r="AF163" t="n">
+        <v>-49.13635834332896</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>-92.6460012112387</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>75.55821793790139</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17378,6 +18851,15 @@
       <c r="AE164" t="n">
         <v>-0.1085203028194291</v>
       </c>
+      <c r="AF164" t="n">
+        <v>163.0164226699479</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>-88.92268761405995</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>-20.58775377848435</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17481,6 +18963,15 @@
       <c r="AE165" t="n">
         <v>-0.09930406740636601</v>
       </c>
+      <c r="AF165" t="n">
+        <v>69.16706547396585</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>-88.51806277659826</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>-46.8329533019966</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17584,6 +19075,15 @@
       <c r="AE166" t="n">
         <v>0.3296386064252996</v>
       </c>
+      <c r="AF166" t="n">
+        <v>-28.30903674285071</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>-98.44652610863503</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>64.86250071111688</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17687,6 +19187,15 @@
       <c r="AE167" t="n">
         <v>0.349377370276829</v>
       </c>
+      <c r="AF167" t="n">
+        <v>-41.09370400437619</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>-95.40720865540317</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>68.24606382911726</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17790,6 +19299,15 @@
       <c r="AE168" t="n">
         <v>-0.2443299494738827</v>
       </c>
+      <c r="AF168" t="n">
+        <v>119.5299473774028</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>-18.34584865874257</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>-80.25968763074354</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17893,6 +19411,15 @@
       <c r="AE169" t="n">
         <v>-0.145590928897582</v>
       </c>
+      <c r="AF169" t="n">
+        <v>70.82603862519122</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>-71.47621087242085</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>-57.74433786193136</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17996,6 +19523,15 @@
       <c r="AE170" t="n">
         <v>-0.1984616137249046</v>
       </c>
+      <c r="AF170" t="n">
+        <v>97.77079616784053</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>-68.46299536030594</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>-62.69891519784952</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18099,6 +19635,15 @@
       <c r="AE171" t="n">
         <v>0.3077572215584925</v>
       </c>
+      <c r="AF171" t="n">
+        <v>-24.2792934713183</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>-93.57027242641077</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>59.82098254724477</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18202,6 +19747,15 @@
       <c r="AE172" t="n">
         <v>-0.1846968055293385</v>
       </c>
+      <c r="AF172" t="n">
+        <v>104.1791303355968</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>-77.26084096393375</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>-58.27720876565381</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18305,6 +19859,15 @@
       <c r="AE173" t="n">
         <v>-0.1020293939685389</v>
       </c>
+      <c r="AF173" t="n">
+        <v>70.46453552900161</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>-84.30693573757468</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>-42.53122681530206</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18408,6 +19971,15 @@
       <c r="AE174" t="n">
         <v>0.3036994908459807</v>
       </c>
+      <c r="AF174" t="n">
+        <v>-9.066531552977743</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>-97.10953548364917</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>68.44433272062894</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18511,6 +20083,15 @@
       <c r="AE175" t="n">
         <v>0.4519597803001512</v>
       </c>
+      <c r="AF175" t="n">
+        <v>-58.47415737126597</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>-98.16313722267321</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>107.4901301688611</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18614,6 +20195,15 @@
       <c r="AE176" t="n">
         <v>-0.2092700567376417</v>
       </c>
+      <c r="AF176" t="n">
+        <v>-22.70867540311434</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>114.1598475151354</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>-82.51030567478293</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18717,6 +20307,15 @@
       <c r="AE177" t="n">
         <v>-0.1355393834129595</v>
       </c>
+      <c r="AF177" t="n">
+        <v>82.77828281360345</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>-84.74800826397112</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>-53.22942409114728</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18820,6 +20419,15 @@
       <c r="AE178" t="n">
         <v>0.3156756402389936</v>
       </c>
+      <c r="AF178" t="n">
+        <v>-39.3117405271132</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>-96.87173853996833</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>55.39392757899566</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18923,6 +20531,15 @@
       <c r="AE179" t="n">
         <v>0.3045210544934742</v>
       </c>
+      <c r="AF179" t="n">
+        <v>-31.47959982556118</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>-96.2792567796983</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>55.59414617130489</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19026,6 +20643,15 @@
       <c r="AE180" t="n">
         <v>-0.1358119638257548</v>
       </c>
+      <c r="AF180" t="n">
+        <v>58.00511532510425</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>-59.99776758303597</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>-66.45872394888782</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19129,6 +20755,15 @@
       <c r="AE181" t="n">
         <v>0.3248799787925144</v>
       </c>
+      <c r="AF181" t="n">
+        <v>-31.51298805332738</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>-95.18380048798262</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>63.73933747702281</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19232,6 +20867,15 @@
       <c r="AE182" t="n">
         <v>0.4166786051757463</v>
       </c>
+      <c r="AF182" t="n">
+        <v>-43.37953835626338</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>-91.75481625326279</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>114.9853671698789</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19335,6 +20979,15 @@
       <c r="AE183" t="n">
         <v>0.312059186452093</v>
       </c>
+      <c r="AF183" t="n">
+        <v>-48.43240826157918</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>-99.40286250930434</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>51.14685996005387</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19438,6 +21091,15 @@
       <c r="AE184" t="n">
         <v>0.3878120344765916</v>
       </c>
+      <c r="AF184" t="n">
+        <v>-32.5446133350723</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>-96.37168565405415</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>104.1840714799348</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19541,6 +21203,15 @@
       <c r="AE185" t="n">
         <v>0.3556611308394299</v>
       </c>
+      <c r="AF185" t="n">
+        <v>-40.01149859434299</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>-90.16387137453728</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>78.78229948089913</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19644,6 +21315,15 @@
       <c r="AE186" t="n">
         <v>-0.157077142854019</v>
       </c>
+      <c r="AF186" t="n">
+        <v>137.8740801607783</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>-67.34087684621025</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>-36.76092937949149</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19747,6 +21427,15 @@
       <c r="AE187" t="n">
         <v>-0.08063703049034592</v>
       </c>
+      <c r="AF187" t="n">
+        <v>-34.50681870043967</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>146.6334976398168</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>-69.83652896770174</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19850,6 +21539,15 @@
       <c r="AE188" t="n">
         <v>0.3235624391550925</v>
       </c>
+      <c r="AF188" t="n">
+        <v>-44.3913546148986</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>-87.8280657183474</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>61.67039900908512</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19953,6 +21651,15 @@
       <c r="AE189" t="n">
         <v>-0.1771035532153402</v>
       </c>
+      <c r="AF189" t="n">
+        <v>93.78094963962488</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>-65.45963232435568</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>-55.43678552892498</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20056,6 +21763,15 @@
       <c r="AE190" t="n">
         <v>0.3882293267426196</v>
       </c>
+      <c r="AF190" t="n">
+        <v>-43.88229145071204</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>-97.09105764598203</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>85.05282075593954</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20159,6 +21875,15 @@
       <c r="AE191" t="n">
         <v>0.3332496755289775</v>
       </c>
+      <c r="AF191" t="n">
+        <v>-20.10363863802587</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>-95.84417668903403</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>78.43966572254951</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20262,6 +21987,15 @@
       <c r="AE192" t="n">
         <v>-0.09681080101556996</v>
       </c>
+      <c r="AF192" t="n">
+        <v>60.07793833438046</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>-85.03434959192703</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>-48.82159478097852</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20365,6 +22099,15 @@
       <c r="AE193" t="n">
         <v>-0.178209176171947</v>
       </c>
+      <c r="AF193" t="n">
+        <v>79.08520120833869</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>-57.25991319158925</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>-63.09137455717867</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20468,6 +22211,15 @@
       <c r="AE194" t="n">
         <v>-0.1662531915762117</v>
       </c>
+      <c r="AF194" t="n">
+        <v>108.7561388962994</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>-81.94436424714728</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>-48.76326879106927</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20571,6 +22323,15 @@
       <c r="AE195" t="n">
         <v>-0.009298372900272245</v>
       </c>
+      <c r="AF195" t="n">
+        <v>-45.95495754850896</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>233.7271552710128</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>-13.22554491977747</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20674,6 +22435,15 @@
       <c r="AE196" t="n">
         <v>0.3063276558434997</v>
       </c>
+      <c r="AF196" t="n">
+        <v>-42.33621106175096</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>-98.24759798722269</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>50.95865375962448</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20777,6 +22547,15 @@
       <c r="AE197" t="n">
         <v>-0.1936432082275139</v>
       </c>
+      <c r="AF197" t="n">
+        <v>88.88495574287487</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>-56.76364587285515</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>-62.12189287392774</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20880,6 +22659,15 @@
       <c r="AE198" t="n">
         <v>-0.1211183754179155</v>
       </c>
+      <c r="AF198" t="n">
+        <v>67.26416719320164</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>-78.67871443845765</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>-55.77880161704834</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20983,6 +22771,15 @@
       <c r="AE199" t="n">
         <v>-0.1168751242359298</v>
       </c>
+      <c r="AF199" t="n">
+        <v>83.52848541926797</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>-76.12911062380964</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>-38.00795666588848</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21086,6 +22883,15 @@
       <c r="AE200" t="n">
         <v>0.4142938244600609</v>
       </c>
+      <c r="AF200" t="n">
+        <v>-74.91738596120082</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>-98.44248066693315</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>78.42360303124197</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21189,6 +22995,15 @@
       <c r="AE201" t="n">
         <v>-0.1970728388921144</v>
       </c>
+      <c r="AF201" t="n">
+        <v>111.7077811571133</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>-89.44357749504157</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>-63.60470765388716</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21292,6 +23107,15 @@
       <c r="AE202" t="n">
         <v>-0.1526805237114237</v>
       </c>
+      <c r="AF202" t="n">
+        <v>73.03627354177121</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>-62.93110333339391</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>-55.92601924726704</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21395,6 +23219,15 @@
       <c r="AE203" t="n">
         <v>-0.2121919930082414</v>
       </c>
+      <c r="AF203" t="n">
+        <v>75.57200293531019</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>-37.46780860327529</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>-70.49799767708022</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21498,6 +23331,15 @@
       <c r="AE204" t="n">
         <v>-0.07741154070964601</v>
       </c>
+      <c r="AF204" t="n">
+        <v>58.22571774552458</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>-81.85500806862926</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>-36.49894508100596</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21601,6 +23443,15 @@
       <c r="AE205" t="n">
         <v>0.3106205105420214</v>
       </c>
+      <c r="AF205" t="n">
+        <v>-70.35137387615418</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>-97.29619841687325</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>48.28575634692947</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21704,6 +23555,15 @@
       <c r="AE206" t="n">
         <v>-0.142382392926287</v>
       </c>
+      <c r="AF206" t="n">
+        <v>85.95423279772099</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>-79.82233877769147</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>-50.84960155373442</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21807,6 +23667,15 @@
       <c r="AE207" t="n">
         <v>-0.099221858538385</v>
       </c>
+      <c r="AF207" t="n">
+        <v>77.36755030873522</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>-80.72686799127365</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>-35.11343012947557</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21910,6 +23779,15 @@
       <c r="AE208" t="n">
         <v>0.3113779476787949</v>
       </c>
+      <c r="AF208" t="n">
+        <v>-64.85399113019503</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>-99.66996853343821</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>48.90056349280938</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22013,6 +23891,15 @@
       <c r="AE209" t="n">
         <v>0.3078137165342549</v>
       </c>
+      <c r="AF209" t="n">
+        <v>-31.5738837930696</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>-95.36232646616943</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>55.12780590746122</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22116,6 +24003,15 @@
       <c r="AE210" t="n">
         <v>0.4613042216667969</v>
       </c>
+      <c r="AF210" t="n">
+        <v>-45.37240470361274</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>-92.3686726592627</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>175.5031085102575</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22219,6 +24115,15 @@
       <c r="AE211" t="n">
         <v>-0.1978411603555176</v>
       </c>
+      <c r="AF211" t="n">
+        <v>130.1895663733045</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>-32.72025304915866</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>-63.26380806181729</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22322,6 +24227,15 @@
       <c r="AE212" t="n">
         <v>0.347058271485654</v>
       </c>
+      <c r="AF212" t="n">
+        <v>-24.75770542008695</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>-98.03811154679074</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>78.07466847606347</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22425,6 +24339,15 @@
       <c r="AE213" t="n">
         <v>0.3205355120854837</v>
       </c>
+      <c r="AF213" t="n">
+        <v>-44.35507317066415</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>-99.43669701109437</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>54.10474971905804</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22528,6 +24451,15 @@
       <c r="AE214" t="n">
         <v>-0.037759335744808</v>
       </c>
+      <c r="AF214" t="n">
+        <v>71.91590889778614</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>-94.2544781545832</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>-12.70631625028629</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22631,6 +24563,15 @@
       <c r="AE215" t="n">
         <v>-0.2343676891116353</v>
       </c>
+      <c r="AF215" t="n">
+        <v>221.2555305680633</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>-89.30272818881478</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>-45.32312849351278</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22734,6 +24675,15 @@
       <c r="AE216" t="n">
         <v>-0.1060184318790919</v>
       </c>
+      <c r="AF216" t="n">
+        <v>107.545426792426</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>-86.20337951576803</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>-28.10000117917074</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22837,6 +24787,15 @@
       <c r="AE217" t="n">
         <v>0.3380408086964757</v>
       </c>
+      <c r="AF217" t="n">
+        <v>-29.47179479880115</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>-90.58110357812507</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>79.63793875652966</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22940,6 +24899,15 @@
       <c r="AE218" t="n">
         <v>-0.1185545158071382</v>
       </c>
+      <c r="AF218" t="n">
+        <v>89.04018049114829</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>-84.2748036346034</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>-38.58467836137112</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23043,6 +25011,15 @@
       <c r="AE219" t="n">
         <v>-0.1255465115122414</v>
       </c>
+      <c r="AF219" t="n">
+        <v>69.76636749423622</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>-64.7180160381068</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>-44.85885934890192</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23146,6 +25123,15 @@
       <c r="AE220" t="n">
         <v>-0.1094588993573151</v>
       </c>
+      <c r="AF220" t="n">
+        <v>83.08654549762983</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>-82.76337439093054</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>-36.01088656494084</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23249,6 +25235,15 @@
       <c r="AE221" t="n">
         <v>-0.1608819502443161</v>
       </c>
+      <c r="AF221" t="n">
+        <v>71.27487319248266</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>-54.02162549462488</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>-60.78385413992569</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23352,6 +25347,15 @@
       <c r="AE222" t="n">
         <v>-0.1992530865657078</v>
       </c>
+      <c r="AF222" t="n">
+        <v>103.0466215470877</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>-72.5207251952904</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>-59.91205198268045</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23455,6 +25459,15 @@
       <c r="AE223" t="n">
         <v>-0.1391707792843106</v>
       </c>
+      <c r="AF223" t="n">
+        <v>95.31824119490456</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>-72.00979767272473</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>-40.25638336744955</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23558,6 +25571,15 @@
       <c r="AE224" t="n">
         <v>0.3304652210669674</v>
       </c>
+      <c r="AF224" t="n">
+        <v>-14.73333614373561</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>-95.96209149782293</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>96.19910287636493</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23661,6 +25683,15 @@
       <c r="AE225" t="n">
         <v>0.4756338799010651</v>
       </c>
+      <c r="AF225" t="n">
+        <v>-78.83151747629937</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>-98.48575037609216</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>102.8134653629396</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23764,6 +25795,15 @@
       <c r="AE226" t="n">
         <v>-0.05227954086118569</v>
       </c>
+      <c r="AF226" t="n">
+        <v>75.97112515580019</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>-87.80624773817752</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>-17.00070860270023</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23867,6 +25907,15 @@
       <c r="AE227" t="n">
         <v>0.3205489268953567</v>
       </c>
+      <c r="AF227" t="n">
+        <v>-24.9609695278733</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>-90.86407266319951</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>68.61666729695503</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23970,6 +26019,15 @@
       <c r="AE228" t="n">
         <v>0.3266638750216726</v>
       </c>
+      <c r="AF228" t="n">
+        <v>-38.72609213867134</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>-90.54500426187398</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>63.23607043770701</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24073,6 +26131,15 @@
       <c r="AE229" t="n">
         <v>0.4277881467040727</v>
       </c>
+      <c r="AF229" t="n">
+        <v>-60.0969553558015</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>-99.03297900041713</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>91.17225398871186</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24176,6 +26243,15 @@
       <c r="AE230" t="n">
         <v>-0.168542656692565</v>
       </c>
+      <c r="AF230" t="n">
+        <v>78.86406205751403</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>-47.35959813810364</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>-51.5239456716109</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24279,6 +26355,15 @@
       <c r="AE231" t="n">
         <v>-0.07826589917644067</v>
       </c>
+      <c r="AF231" t="n">
+        <v>73.78482989452874</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>-84.86237528200218</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>-26.57633077068852</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24382,6 +26467,15 @@
       <c r="AE232" t="n">
         <v>-0.1370220862075845</v>
       </c>
+      <c r="AF232" t="n">
+        <v>85.90250764578487</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>-88.52999475830164</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>-51.24561238307297</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24485,6 +26579,15 @@
       <c r="AE233" t="n">
         <v>-0.1497330976011148</v>
       </c>
+      <c r="AF233" t="n">
+        <v>87.78016471654844</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>-83.97901127654477</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>-54.61034684364693</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24588,6 +26691,15 @@
       <c r="AE234" t="n">
         <v>-0.1521207815133583</v>
       </c>
+      <c r="AF234" t="n">
+        <v>95.78395376883606</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>-72.98244109161332</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>-45.16796229739165</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24691,6 +26803,15 @@
       <c r="AE235" t="n">
         <v>0.3265960455903358</v>
       </c>
+      <c r="AF235" t="n">
+        <v>-37.24926853277668</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>-94.25676906731913</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>60.85129169290951</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24794,6 +26915,15 @@
       <c r="AE236" t="n">
         <v>0.3689099307309729</v>
       </c>
+      <c r="AF236" t="n">
+        <v>-38.57978286675343</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>-95.73410408094399</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>79.1532089172899</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24897,6 +27027,15 @@
       <c r="AE237" t="n">
         <v>0.393024673051197</v>
       </c>
+      <c r="AF237" t="n">
+        <v>-38.71391744184953</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>-92.94929268742727</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>101.8030024815324</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25000,6 +27139,15 @@
       <c r="AE238" t="n">
         <v>0.3222333514677752</v>
       </c>
+      <c r="AF238" t="n">
+        <v>-25.92510368654418</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>-77.80038139790327</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>92.40933791498918</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25103,6 +27251,15 @@
       <c r="AE239" t="n">
         <v>0.3986794517772123</v>
       </c>
+      <c r="AF239" t="n">
+        <v>-64.23256373647071</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>-97.28705647600754</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>77.26441222754805</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25206,6 +27363,15 @@
       <c r="AE240" t="n">
         <v>-0.09629428051807043</v>
       </c>
+      <c r="AF240" t="n">
+        <v>74.61601338178293</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>-77.15785776980492</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>-32.09142080578922</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25309,6 +27475,15 @@
       <c r="AE241" t="n">
         <v>0.3117798487062843</v>
       </c>
+      <c r="AF241" t="n">
+        <v>-36.06017538029329</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>-98.13065454036568</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>53.05544195689319</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25412,6 +27587,15 @@
       <c r="AE242" t="n">
         <v>-0.1360208959864338</v>
       </c>
+      <c r="AF242" t="n">
+        <v>103.5473180425992</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>-68.8610008000411</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>-34.68509580309556</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25515,6 +27699,15 @@
       <c r="AE243" t="n">
         <v>-0.1714396674564385</v>
       </c>
+      <c r="AF243" t="n">
+        <v>90.30386291089906</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>-74.9701161277269</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>-59.80375321575339</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25618,6 +27811,15 @@
       <c r="AE244" t="n">
         <v>0.3609018560413297</v>
       </c>
+      <c r="AF244" t="n">
+        <v>-39.90802887742921</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>-97.50087371991147</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>71.45120865717101</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25721,6 +27923,15 @@
       <c r="AE245" t="n">
         <v>-0.02972679494413351</v>
       </c>
+      <c r="AF245" t="n">
+        <v>-35.78625809899641</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>225.7978471724853</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>-44.06830320708839</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25824,6 +28035,15 @@
       <c r="AE246" t="n">
         <v>0.329806408117472</v>
       </c>
+      <c r="AF246" t="n">
+        <v>-20.00231046714592</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>-90.60004122497585</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>84.58968175253924</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25927,6 +28147,15 @@
       <c r="AE247" t="n">
         <v>-0.09889859139986676</v>
       </c>
+      <c r="AF247" t="n">
+        <v>69.67026752735183</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>-72.65741406368184</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>-35.64143872222056</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26030,6 +28259,15 @@
       <c r="AE248" t="n">
         <v>0.3434966466120036</v>
       </c>
+      <c r="AF248" t="n">
+        <v>-19.05858815732082</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>-92.1440122715552</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>152.1399498198151</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26133,6 +28371,15 @@
       <c r="AE249" t="n">
         <v>-0.09892146291019516</v>
       </c>
+      <c r="AF249" t="n">
+        <v>104.9843285485596</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>-73.60362867031553</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>-23.81202104904041</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26236,6 +28483,15 @@
       <c r="AE250" t="n">
         <v>-0.1762594932365077</v>
       </c>
+      <c r="AF250" t="n">
+        <v>98.15692945240481</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>-62.37525018501877</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>-50.74299484782166</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26339,6 +28595,15 @@
       <c r="AE251" t="n">
         <v>-0.174034807669364</v>
       </c>
+      <c r="AF251" t="n">
+        <v>98.98279477720855</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>-73.19510573398601</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>-53.13178784482656</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26442,6 +28707,15 @@
       <c r="AE252" t="n">
         <v>0.3619198991986673</v>
       </c>
+      <c r="AF252" t="n">
+        <v>-40.46303291135573</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>-98.05028973056098</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>72.78284102774998</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26545,6 +28819,15 @@
       <c r="AE253" t="n">
         <v>-0.1218425413575168</v>
       </c>
+      <c r="AF253" t="n">
+        <v>111.9319988980564</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>-86.53275753974165</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>-31.12079315883432</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26648,6 +28931,15 @@
       <c r="AE254" t="n">
         <v>-0.03525561298015206</v>
       </c>
+      <c r="AF254" t="n">
+        <v>81.94030072969308</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>-90.40937574819824</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>-10.8834210025102</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26751,6 +29043,15 @@
       <c r="AE255" t="n">
         <v>-0.03174728470186465</v>
       </c>
+      <c r="AF255" t="n">
+        <v>-39.62309025354195</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>198.4410013213986</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>-37.92325968388721</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26854,6 +29155,15 @@
       <c r="AE256" t="n">
         <v>-0.2181367544841404</v>
       </c>
+      <c r="AF256" t="n">
+        <v>118.7868161606132</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>-83.3671158774581</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>-64.9933770491398</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26957,6 +29267,15 @@
       <c r="AE257" t="n">
         <v>-0.1493023937678061</v>
       </c>
+      <c r="AF257" t="n">
+        <v>-41.02957317084715</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>125.707036722455</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>-66.60958367643723</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27060,6 +29379,15 @@
       <c r="AE258" t="n">
         <v>0.3884069875940693</v>
       </c>
+      <c r="AF258" t="n">
+        <v>-64.82552979519417</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>-93.9582392673901</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>75.66756208820031</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27163,6 +29491,15 @@
       <c r="AE259" t="n">
         <v>-0.05518415376116234</v>
       </c>
+      <c r="AF259" t="n">
+        <v>68.55582334371674</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>-87.10026293021596</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>-20.53035251410637</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27266,6 +29603,15 @@
       <c r="AE260" t="n">
         <v>-0.1556568817748855</v>
       </c>
+      <c r="AF260" t="n">
+        <v>83.88550824837944</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>-52.92617496615867</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>-46.51359933214361</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27369,6 +29715,15 @@
       <c r="AE261" t="n">
         <v>-0.2031999636678162</v>
       </c>
+      <c r="AF261" t="n">
+        <v>114.815372998166</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>-80.21791313558781</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>-60.0039722644254</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27472,6 +29827,15 @@
       <c r="AE262" t="n">
         <v>-0.1324264098364769</v>
       </c>
+      <c r="AF262" t="n">
+        <v>159.669669730586</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>-51.81259346671224</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>-39.22572882727601</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27575,6 +29939,15 @@
       <c r="AE263" t="n">
         <v>-0.1761491608690944</v>
       </c>
+      <c r="AF263" t="n">
+        <v>96.95144306707111</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>-81.0358605606548</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>-59.64608366866742</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27678,6 +30051,15 @@
       <c r="AE264" t="n">
         <v>-0.0874210078579559</v>
       </c>
+      <c r="AF264" t="n">
+        <v>83.32391502547402</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>-80.20327100156599</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>-26.26930726033571</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27781,6 +30163,15 @@
       <c r="AE265" t="n">
         <v>-0.2013814993154035</v>
       </c>
+      <c r="AF265" t="n">
+        <v>97.74703625338317</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>-30.95230006244228</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>-90.15231701125425</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27884,6 +30275,15 @@
       <c r="AE266" t="n">
         <v>-0.1394965201429229</v>
       </c>
+      <c r="AF266" t="n">
+        <v>91.81793258597118</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>-76.54302496048282</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>-42.87221521805531</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27987,6 +30387,15 @@
       <c r="AE267" t="n">
         <v>-0.0808703563835903</v>
       </c>
+      <c r="AF267" t="n">
+        <v>90.75190812461774</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>-89.7847681143792</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>-23.98701022794968</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -28090,6 +30499,15 @@
       <c r="AE268" t="n">
         <v>-0.1209004733095674</v>
       </c>
+      <c r="AF268" t="n">
+        <v>-33.3857404071955</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>136.5029936854475</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>-54.96027783557906</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -28193,6 +30611,15 @@
       <c r="AE269" t="n">
         <v>0.4177167983958178</v>
       </c>
+      <c r="AF269" t="n">
+        <v>-75.58117955120824</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>-97.95921304968613</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>79.38339745029937</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -28296,6 +30723,15 @@
       <c r="AE270" t="n">
         <v>0.4649957977288255</v>
       </c>
+      <c r="AF270" t="n">
+        <v>-68.54772340412755</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>-97.86062881094594</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>105.0290368005452</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -28399,6 +30835,15 @@
       <c r="AE271" t="n">
         <v>0.3907793254195013</v>
       </c>
+      <c r="AF271" t="n">
+        <v>-54.73019393532158</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>-98.55913637137402</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>77.03321940729965</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28502,6 +30947,15 @@
       <c r="AE272" t="n">
         <v>0.3960505860892113</v>
       </c>
+      <c r="AF272" t="n">
+        <v>-38.72628795261164</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>-98.86332935325215</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>95.25023912294576</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28605,6 +31059,15 @@
       <c r="AE273" t="n">
         <v>-0.1468361253362147</v>
       </c>
+      <c r="AF273" t="n">
+        <v>70.88726093180352</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>-78.37166084604507</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>-69.5963620590601</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28708,6 +31171,15 @@
       <c r="AE274" t="n">
         <v>0.4409084904313311</v>
       </c>
+      <c r="AF274" t="n">
+        <v>-53.47729909509362</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>-88.62411525604851</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>134.5072090274775</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28811,6 +31283,15 @@
       <c r="AE275" t="n">
         <v>0.3444916314363493</v>
       </c>
+      <c r="AF275" t="n">
+        <v>-38.12571034267296</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>-99.52754265026603</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>65.07165723584288</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28914,6 +31395,15 @@
       <c r="AE276" t="n">
         <v>-0.0138624132875654</v>
       </c>
+      <c r="AF276" t="n">
+        <v>-51.88595807595679</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>353.1666944795061</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>-24.7620870669973</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -29017,6 +31507,15 @@
       <c r="AE277" t="n">
         <v>0.4021961734453414</v>
       </c>
+      <c r="AF277" t="n">
+        <v>-65.78054783006529</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>-99.53457451999842</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>75.78006210322921</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -29120,6 +31619,15 @@
       <c r="AE278" t="n">
         <v>-0.0841143107410936</v>
       </c>
+      <c r="AF278" t="n">
+        <v>81.9610439293409</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>-88.35863789687784</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>-27.02165403619219</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -29223,6 +31731,15 @@
       <c r="AE279" t="n">
         <v>0.3585849941278531</v>
       </c>
+      <c r="AF279" t="n">
+        <v>-46.46728945331635</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>-96.45506491374705</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>68.52803234951659</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -29326,6 +31843,15 @@
       <c r="AE280" t="n">
         <v>-0.2349127512065071</v>
       </c>
+      <c r="AF280" t="n">
+        <v>127.9788286045901</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>-64.22909107652764</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>-61.43768593190985</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29429,6 +31955,15 @@
       <c r="AE281" t="n">
         <v>-0.1543594749670275</v>
       </c>
+      <c r="AF281" t="n">
+        <v>90.87941295786153</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>-85.67919706170323</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>-53.92288826091023</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -29532,6 +32067,15 @@
       <c r="AE282" t="n">
         <v>0.5415994450008064</v>
       </c>
+      <c r="AF282" t="n">
+        <v>-65.19330562944532</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>-92.47009024131722</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>187.8231032142664</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29635,6 +32179,15 @@
       <c r="AE283" t="n">
         <v>0.3227985183437957</v>
       </c>
+      <c r="AF283" t="n">
+        <v>-34.45085931396051</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>-68.96317517618843</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>90.91072485290408</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29738,6 +32291,15 @@
       <c r="AE284" t="n">
         <v>0.3516983642081326</v>
       </c>
+      <c r="AF284" t="n">
+        <v>-43.06059996058298</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>-51.84794637993171</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>149.0650419606299</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -29841,6 +32403,15 @@
       <c r="AE285" t="n">
         <v>-0.1361311005800256</v>
       </c>
+      <c r="AF285" t="n">
+        <v>74.98750843199697</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>-60.75424523350536</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>-46.39697228384675</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29944,6 +32515,15 @@
       <c r="AE286" t="n">
         <v>-0.01644881480483695</v>
       </c>
+      <c r="AF286" t="n">
+        <v>-48.86405806171241</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>310.5165413280852</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>-32.00734663526992</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -30047,6 +32627,15 @@
       <c r="AE287" t="n">
         <v>-0.2776904230990305</v>
       </c>
+      <c r="AF287" t="n">
+        <v>128.5436359723645</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>-14.44243214048401</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>-58.00231422894956</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -30150,6 +32739,15 @@
       <c r="AE288" t="n">
         <v>-0.09277633470317374</v>
       </c>
+      <c r="AF288" t="n">
+        <v>66.1940321618867</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>-91.86848293509185</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>-44.96234157614862</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -30253,6 +32851,15 @@
       <c r="AE289" t="n">
         <v>0.3122778449014922</v>
       </c>
+      <c r="AF289" t="n">
+        <v>-33.1681719680528</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>-90.54813384313847</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>61.7780411384591</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -30356,6 +32963,15 @@
       <c r="AE290" t="n">
         <v>-0.07253034895235672</v>
       </c>
+      <c r="AF290" t="n">
+        <v>83.92971887252695</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>-84.47556552535941</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>-21.47239288468327</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -30459,6 +33075,15 @@
       <c r="AE291" t="n">
         <v>-0.1144647139808676</v>
       </c>
+      <c r="AF291" t="n">
+        <v>80.17222157780976</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>-68.80017569068681</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>-35.20958442331735</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -30561,6 +33186,15 @@
       </c>
       <c r="AE292" t="n">
         <v>-0.1073549728456653</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>61.14519595085912</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>-72.45031518136255</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>-49.56101846997596</v>
       </c>
     </row>
   </sheetData>
